--- a/Stocks/JYOTHYLAB.xlsx
+++ b/Stocks/JYOTHYLAB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>394.84999999999997</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>374.51237508458189</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>369.96588922027865</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>58.949317053347414</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>4.2999999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>7.9499999999999886</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.54088050314464919</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>371.61111201783592</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>1.388598194428198</v>
       </c>
       <c r="Y67">
         <v>1.1296738812843814</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>378.7</v>
+      </c>
+      <c r="D83">
+        <v>381.35</v>
+      </c>
+      <c r="E83">
+        <v>375</v>
+      </c>
+      <c r="F83">
+        <v>381</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>379.11666666666662</v>
+      </c>
+      <c r="H83">
+        <v>378.22016671308006</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>382.78310404660027</v>
+      </c>
+      <c r="K83">
+        <v>373.13797370138673</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>59.278646254872157</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000227</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.94488188976377618</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>378.23006406348151</v>
+      </c>
+      <c r="W83">
+        <v>377.03432463347497</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>1.1957394300065403</v>
+      </c>
+      <c r="Y83">
+        <v>1.6364372969070455</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>380.7</v>
+      </c>
+      <c r="D84">
+        <v>385.9</v>
+      </c>
+      <c r="E84">
+        <v>377.05</v>
+      </c>
+      <c r="F84">
+        <v>383.65</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>382.2</v>
+      </c>
+      <c r="H84">
+        <v>380.21008335654005</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>383.4757475918002</v>
+      </c>
+      <c r="K84">
+        <v>374.00731287885634</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>65.524601221152508</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>6.5999999999999659</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>8.8499999999999659</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.74576271186440579</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>379.06390036140743</v>
+      </c>
+      <c r="W84">
+        <v>377.52437466062497</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>1.5395257007824625</v>
+      </c>
+      <c r="Y84">
+        <v>1.617054977682129</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>384.75</v>
+      </c>
+      <c r="D85">
+        <v>392.05</v>
+      </c>
+      <c r="E85">
+        <v>375.2</v>
+      </c>
+      <c r="F85">
+        <v>380</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>382.41666666666669</v>
+      </c>
+      <c r="H85">
+        <v>381.3133750116034</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>385.38113701584462</v>
+      </c>
+      <c r="K85">
+        <v>374.27235446133272</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>51.835849037919381</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>16.850000000000023</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.28486646884273026</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>379.20791569042166</v>
+      </c>
+      <c r="W85">
+        <v>377.70775431539352</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>1.5001613750281422</v>
+      </c>
+      <c r="Y85">
+        <v>1.5936762571513317</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>380.25</v>
+      </c>
+      <c r="D86">
+        <v>385.8</v>
+      </c>
+      <c r="E86">
+        <v>379</v>
+      </c>
+      <c r="F86">
+        <v>382</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>382.26666666666665</v>
+      </c>
+      <c r="H86">
+        <v>381.79002083913502</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>385.47421767899027</v>
+      </c>
+      <c r="K86">
+        <v>375.32294235881432</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>57.864920561248432</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>6.8000000000000114</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.44117647058823456</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>379.63746712266448</v>
+      </c>
+      <c r="W86">
+        <v>378.02569844017916</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>1.6117686824853195</v>
+      </c>
+      <c r="Y86">
+        <v>1.5972947422181292</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>384.75</v>
+      </c>
+      <c r="D87">
+        <v>392</v>
+      </c>
+      <c r="E87">
+        <v>380.85</v>
+      </c>
+      <c r="F87">
+        <v>391.15</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>388</v>
+      </c>
+      <c r="H87">
+        <v>384.89501041956748</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>386.92439152810357</v>
+      </c>
+      <c r="K87">
+        <v>376.55117739018891</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>75.443743683459729</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>10.299999999999955</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>11.149999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.92376681614349554</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>381.40862602686991</v>
+      </c>
+      <c r="W87">
+        <v>378.99786892609183</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>2.4107571007780848</v>
+      </c>
+      <c r="Y87">
+        <v>1.7599872139301203</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>393</v>
+      </c>
+      <c r="D88">
+        <v>396.8</v>
+      </c>
+      <c r="E88">
+        <v>384</v>
+      </c>
+      <c r="F88">
+        <v>386.4</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>389.06666666666661</v>
+      </c>
+      <c r="H88">
+        <v>386.98083854311704</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>389.11897118852499</v>
+      </c>
+      <c r="K88">
+        <v>378.20647130348027</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>59.370625667321683</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>12.800000000000011</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.18749999999999806</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>382.17652971504378</v>
+      </c>
+      <c r="W88">
+        <v>379.5461749315665</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>2.6303547834772871</v>
+      </c>
+      <c r="Y88">
+        <v>1.9340607278395536</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>386.45</v>
+      </c>
+      <c r="D89">
+        <v>395</v>
+      </c>
+      <c r="E89">
+        <v>385.5</v>
+      </c>
+      <c r="F89">
+        <v>390.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>390.18333333333334</v>
+      </c>
+      <c r="H89">
+        <v>388.58208593822519</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>390.42586647996387</v>
+      </c>
+      <c r="K89">
+        <v>379.82725545826241</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>66.272543190733003</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.5500000000000114</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>9.5</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.47894736842105384</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>383.38783283580631</v>
+      </c>
+      <c r="W89">
+        <v>380.32423604774675</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>3.0635967880595558</v>
+      </c>
+      <c r="Y89">
+        <v>2.1599679398835541</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>391</v>
+      </c>
+      <c r="D90">
+        <v>396</v>
+      </c>
+      <c r="E90">
+        <v>386.05</v>
+      </c>
+      <c r="F90">
+        <v>393</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>391.68333333333334</v>
+      </c>
+      <c r="H90">
+        <v>390.13270963577929</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>391.6645628177497</v>
+      </c>
+      <c r="K90">
+        <v>381.21008757864854</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>71.212981514494999</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>6.9499999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>9.9499999999999886</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.69849246231155748</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>384.86662778414382</v>
+      </c>
+      <c r="W90">
+        <v>381.26318152569144</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>3.6034462584523794</v>
+      </c>
+      <c r="Y90">
+        <v>2.448663603597319</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>392.9</v>
+      </c>
+      <c r="D91">
+        <v>395.5</v>
+      </c>
+      <c r="E91">
+        <v>392</v>
+      </c>
+      <c r="F91">
+        <v>394</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>393.83333333333331</v>
+      </c>
+      <c r="H91">
+        <v>391.98302148455628</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>392.51688219158308</v>
+      </c>
+      <c r="K91">
+        <v>383.60784589450441</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>72.895322875766993</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>386.2717619711986</v>
+      </c>
+      <c r="W91">
+        <v>382.20664956082538</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>4.0651124103732172</v>
+      </c>
+      <c r="Y91">
+        <v>2.7719533649524988</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>392.25</v>
+      </c>
+      <c r="D92">
+        <v>400</v>
+      </c>
+      <c r="E92">
+        <v>390.55</v>
+      </c>
+      <c r="F92">
+        <v>396</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>395.51666666666665</v>
+      </c>
+      <c r="H92">
+        <v>393.74984407561146</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>394.17979726012015</v>
+      </c>
+      <c r="K92">
+        <v>385.15054680683676</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>76.350563114012061</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>5.4499999999999886</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>9.4499999999999886</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.57671957671957619</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>387.76841397562958</v>
+      </c>
+      <c r="W92">
+        <v>383.22837922298646</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>4.5400347526431233</v>
+      </c>
+      <c r="Y92">
+        <v>3.1255696424906239</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>397</v>
+      </c>
+      <c r="D93">
+        <v>416.9</v>
+      </c>
+      <c r="E93">
+        <v>397</v>
+      </c>
+      <c r="F93">
+        <v>415.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>409.8</v>
+      </c>
+      <c r="H93">
+        <v>401.77492203780571</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>399.22873120231566</v>
+      </c>
+      <c r="K93">
+        <v>387.78375862753973</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>90.738907979472131</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>18.5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>19.899999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.92964824120603118</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>392.0348118255327</v>
+      </c>
+      <c r="W93">
+        <v>385.61886965091338</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>6.4159421746193175</v>
+      </c>
+      <c r="Y93">
+        <v>3.7836441489163626</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>399.25</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>404.6</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>406.95000000000005</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>409.3</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>421.95</v>
+      </c>
+      <c r="D94">
+        <v>423.7</v>
+      </c>
+      <c r="E94">
+        <v>415</v>
+      </c>
+      <c r="F94">
+        <v>417.95</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>418.88333333333338</v>
+      </c>
+      <c r="H94">
+        <v>410.32912768556957</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>404.66679093513437</v>
+      </c>
+      <c r="K94">
+        <v>393.83181226586424</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>91.546629109785115</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>2.9499999999999886</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8.6999999999999886</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.33908045977011408</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>396.02176385237379</v>
+      </c>
+      <c r="W94">
+        <v>388.01376819529014</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>8.0079956570836544</v>
+      </c>
+      <c r="Y94">
+        <v>4.6285144505498206</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>416.1</v>
+      </c>
+      <c r="D95">
+        <v>419.85</v>
+      </c>
+      <c r="E95">
+        <v>406.3</v>
+      </c>
+      <c r="F95">
+        <v>409</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>411.7166666666667</v>
+      </c>
+      <c r="H95">
+        <v>411.02289717611814</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>408.0408373939934</v>
+      </c>
+      <c r="K95">
+        <v>396.60252065122774</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>65.471842120610034</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.6999999999999886</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>13.550000000000011</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.19926199261992519</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>398.01841556739322</v>
+      </c>
+      <c r="W95">
+        <v>389.56830388452789</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>8.4501116828653267</v>
+      </c>
+      <c r="Y95">
+        <v>5.3928338970129222</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>409.2</v>
+      </c>
+      <c r="D96">
+        <v>420</v>
+      </c>
+      <c r="E96">
+        <v>407</v>
+      </c>
+      <c r="F96">
+        <v>409</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>412</v>
+      </c>
+      <c r="H96">
+        <v>411.51144858805907</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>410.69842908421708</v>
+      </c>
+      <c r="K96">
+        <v>398.9130716176216</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>65.471842120610034</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>399.70789009548656</v>
+      </c>
+      <c r="W96">
+        <v>391.00768878197027</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>8.7002013135162883</v>
+      </c>
+      <c r="Y96">
+        <v>6.0543073803135954</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>410.1</v>
+      </c>
+      <c r="D97">
+        <v>421</v>
+      </c>
+      <c r="E97">
+        <v>410.1</v>
+      </c>
+      <c r="F97">
+        <v>420.45</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>417.18333333333334</v>
+      </c>
+      <c r="H97">
+        <v>414.3473909606962</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>412.98766706550219</v>
+      </c>
+      <c r="K97">
+        <v>401.39905570259458</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>77.998462570819427</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>10.349999999999966</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>10.899999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.94954128440366858</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>402.89898392695017</v>
+      </c>
+      <c r="W97">
+        <v>393.18860072404652</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>9.7103832029036425</v>
+      </c>
+      <c r="Y97">
+        <v>6.785522544831605</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="35"/>
+        <v>411.35</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="36"/>
+        <v>414.25</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="37"/>
+        <v>415.55</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="38"/>
+        <v>416.85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>416.3</v>
+      </c>
+      <c r="D98">
+        <v>426</v>
+      </c>
+      <c r="E98">
+        <v>416.3</v>
+      </c>
+      <c r="F98">
+        <v>422</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>421.43333333333334</v>
+      </c>
+      <c r="H98">
+        <v>417.8903621470148</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>415.87929660650173</v>
+      </c>
+      <c r="K98">
+        <v>404.71037665757359</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>79.271012480563542</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.58762886597938091</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>405.83760178434244</v>
+      </c>
+      <c r="W98">
+        <v>395.32277844819123</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>10.51482333615121</v>
+      </c>
+      <c r="Y98">
+        <v>7.5313827030955256</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>424.95</v>
+      </c>
+      <c r="D99">
+        <v>442.5</v>
+      </c>
+      <c r="E99">
+        <v>418.85</v>
+      </c>
+      <c r="F99">
+        <v>428.5</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>429.95</v>
+      </c>
+      <c r="H99">
+        <v>423.92018107350736</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>421.79500847172358</v>
+      </c>
+      <c r="K99">
+        <v>407.85251517811281</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>84.093644717941245</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>9.6499999999999773</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>23.649999999999977</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.40803382663847726</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>409.32412458675128</v>
+      </c>
+      <c r="W99">
+        <v>397.78035041499186</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>11.543774171759424</v>
+      </c>
+      <c r="Y99">
+        <v>8.3338609968283048</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>432</v>
+      </c>
+      <c r="D100">
+        <v>432</v>
+      </c>
+      <c r="E100">
+        <v>411</v>
+      </c>
+      <c r="F100">
+        <v>414.7</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>419.23333333333335</v>
+      </c>
+      <c r="H100">
+        <v>421.57675720342036</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>424.0627843668961</v>
+      </c>
+      <c r="K100">
+        <v>408.5519562496433</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>51.992409578431321</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.17619047619047565</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>410.15118234263571</v>
+      </c>
+      <c r="W100">
+        <v>399.03365779165915</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>11.117524550976555</v>
+      </c>
+      <c r="Y100">
+        <v>8.8905937076579544</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>416.85</v>
+      </c>
+      <c r="D101">
+        <v>417.3</v>
+      </c>
+      <c r="E101">
+        <v>394.1</v>
+      </c>
+      <c r="F101">
+        <v>399</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>403.4666666666667</v>
+      </c>
+      <c r="H101">
+        <v>412.52171193504353</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>422.55994339647475</v>
+      </c>
+      <c r="K101">
+        <v>405.34041041638926</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>33.698685986487845</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>23.199999999999989</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.21120689655172326</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>408.43561582838407</v>
+      </c>
+      <c r="W101">
+        <v>399.03116462190661</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>9.4044512064774608</v>
+      </c>
+      <c r="Y101">
+        <v>8.9933652074218564</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>398.2</v>
+      </c>
+      <c r="D102">
+        <v>398.2</v>
+      </c>
+      <c r="E102">
+        <v>376.1</v>
+      </c>
+      <c r="F102">
+        <v>379</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>384.43333333333334</v>
+      </c>
+      <c r="H102">
+        <v>398.4775226341884</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>417.14662264170261</v>
+      </c>
+      <c r="K102">
+        <v>398.84254143496941</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>21.597891609891139</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>22.099999999999966</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.13122171945701275</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>403.90705954709421</v>
+      </c>
+      <c r="W102">
+        <v>397.54737464991354</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>6.3596848971806708</v>
+      </c>
+      <c r="Y102">
+        <v>8.46662914537362</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>395.70000000000005</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>389.75</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>387.15000000000003</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>384.55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>380.05</v>
+      </c>
+      <c r="D103">
+        <v>386</v>
+      </c>
+      <c r="E103">
+        <v>371.4</v>
+      </c>
+      <c r="F103">
+        <v>380</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>379.13333333333338</v>
+      </c>
+      <c r="H103">
+        <v>388.80542798376086</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>410.22515094354645</v>
+      </c>
+      <c r="K103">
+        <v>392.74419889386508</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.318846819338265</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>8.6000000000000227</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>14.600000000000023</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.58904109589041165</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>400.22905038600277</v>
+      </c>
+      <c r="W103">
+        <v>396.24756912029034</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>3.9814812657124321</v>
+      </c>
+      <c r="Y103">
+        <v>7.5695995694413822</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>378.05</v>
+      </c>
+      <c r="D104">
+        <v>386.8</v>
+      </c>
+      <c r="E104">
+        <v>370.7</v>
+      </c>
+      <c r="F104">
+        <v>386.8</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>381.43333333333334</v>
+      </c>
+      <c r="H104">
+        <v>385.11938065854713</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>405.01956184498056</v>
+      </c>
+      <c r="K104">
+        <v>387.8454880285617</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>35.376229493405411</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>16.100000000000023</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>16.100000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>398.16304263431005</v>
+      </c>
+      <c r="W104">
+        <v>395.54774918545399</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>2.6152934488560504</v>
+      </c>
+      <c r="Y104">
+        <v>6.5787383453243162</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
